--- a/followup.xlsx
+++ b/followup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sicil\Computer Science\00 Master thesis\SentenceSimilarityProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sicil\Computer Science\00 Master thesis\SentenceSimilarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136EB5F4-8C0D-4E69-AC08-C5B90873D953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB692F65-7C16-47B1-AC17-3DFAA8F18D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="24573" windowHeight="14586" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -135,12 +135,127 @@
   <si>
     <t>Jan</t>
   </si>
+  <si>
+    <t>1. Get the dataset STSS-131 from professor
+2. Implement similarity measurement for STSS-131</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sentence similarity including Jaccard similarity, expanded Jaccard similairy and semantic similairy were implemented on 30 sentence pairs from STSS-131 dataset.
+Snippets generated from google search similairty was also tried.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>-No result is close to 0.8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+  </si>
+  <si>
+    <t>Implement similarity measurement for STSS-65</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Are STSS-131 correct datasets?
+In STSS-65:
+"Please cite  [1], the paper in which this data set was first used."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>[1] Li, Y., et al., Sentence Similarity Based on Semantic Nets and Corpus Statistics. IEEE Transactions on Knowledge and Data Engineering, 2006. 18(8): p. 1138-1150.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sentence similarity including Jaccard similarity, expanded Jaccard
+similairy and semantic similairy were implemented on 30 sentence pairs from STSS-65 dataset.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>-No result is close to 0.8.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Try STSS-65 datasets.
+</t>
+  </si>
+  <si>
+    <t>Semantic similarity measurement analysis.</t>
+  </si>
+  <si>
+    <t>Analyze the code for semantic similarity measurement
+Update github</t>
+  </si>
+  <si>
+    <t>Analyze the code for semantic similarity measurement
+Get snippets for STSS-131 by Youtube API search, Bing API search</t>
+  </si>
+  <si>
+    <t>Bing API key is expired.</t>
+  </si>
+  <si>
+    <t>Got the snippets from Youtube API.</t>
+  </si>
+  <si>
+    <t>Got the snippets from Bing search API</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Is code implemention correct to measure semantic similarity?
+For the same method based on Li et al paper, the code implemention between two sources are not same and both cannot get the same result as Li et al.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Source 1-https://github.com/rmakynen/SentenceSimilarityProject
+source 2-https://github.com/rohanpillai20/Sentence-Similarity-based-on-Semantic-Nets-and-Corpus-Statistics</t>
+    </r>
+  </si>
+  <si>
+    <t>Get Bing search API
+Refactor code
+Analyze the code for semantic similarity measurement</t>
+  </si>
+  <si>
+    <t>Some files were updated in github.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +279,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Bahnschrift Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Bahnschrift Light"/>
       <family val="2"/>
     </font>
@@ -200,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -239,6 +360,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -723,15 +847,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.17578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="65.76171875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1171875" style="1" customWidth="1"/>
     <col min="4" max="4" width="66" style="1" customWidth="1"/>
     <col min="5" max="5" width="58.17578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.9375" style="1"/>
@@ -775,16 +899,16 @@
       <c r="A5" s="7">
         <v>43773</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -792,43 +916,43 @@
       <c r="A6" s="5">
         <v>43774</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43775</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>43776</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>43777</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>43778</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -836,7 +960,7 @@
       <c r="A11" s="10">
         <v>43779</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:5" s="15" customFormat="1" ht="3.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
@@ -852,95 +976,140 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" s="16" customFormat="1" ht="88" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>43781</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="16" customFormat="1" ht="88.7" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>43782</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="29.35" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>43783</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1" ht="29.35" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>43784</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>43785</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10">
         <v>43786</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="15" customFormat="1" ht="3.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" s="15" customFormat="1" ht="3.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" s="8" customFormat="1" ht="44" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>43787</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>43788</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>43789</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>43790</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>43791</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10">
         <v>43792</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10">
         <v>43793</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43794</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43795</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43796</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43797</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43798</v>
       </c>
